--- a/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B157C-2EC5-41A5-8A1A-4AB30CBFAC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F88D0-B6F6-472C-9CBA-A4660CBEDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="328">
   <si>
     <t>Name</t>
   </si>
@@ -862,9 +862,6 @@
   </si>
   <si>
     <t>POD data from the eWRIMS GIS service.</t>
-  </si>
-  <si>
-    <t>CSWRCB</t>
   </si>
   <si>
     <t>Greg.Gearheart@waterboards.ca.gov</t>
@@ -1070,12 +1067,6 @@
     <t>*get from sites.csv</t>
   </si>
   <si>
-    <t>CSWRCB_Allocation</t>
-  </si>
-  <si>
-    <t>CSWRCB_Water Rights</t>
-  </si>
-  <si>
     <t>Surface water or subsurface water</t>
   </si>
   <si>
@@ -1089,6 +1080,15 @@
   </si>
   <si>
     <t>Adjudicated</t>
+  </si>
+  <si>
+    <t>CAwr_M1</t>
+  </si>
+  <si>
+    <t>CAwr_V1</t>
+  </si>
+  <si>
+    <t>CAwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2589,37 +2589,37 @@
         <v>159</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="94"/>
       <c r="B14" s="93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="94"/>
       <c r="B15" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
       <c r="B16" s="93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="94"/>
       <c r="B17" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="94"/>
       <c r="B18" s="93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,10 +2644,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -2846,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -2874,7 +2874,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -2902,7 +2902,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -2930,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -2958,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -2984,7 +2984,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3012,7 +3012,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3040,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3071,7 +3071,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3168,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3488,7 +3488,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3591,7 +3591,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -3619,7 +3619,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3647,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3675,7 +3675,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3703,7 +3703,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3731,7 +3731,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3759,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3787,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3815,7 +3815,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3971,7 +3971,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
@@ -3997,7 +3997,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>38</v>
@@ -4027,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>38</v>
@@ -4090,10 +4090,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
@@ -4117,7 +4117,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
@@ -4286,7 +4286,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -4318,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>38</v>
@@ -4350,7 +4350,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>38</v>
@@ -4382,7 +4382,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>38</v>
@@ -4394,7 +4394,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" s="89" t="s">
         <v>245</v>
@@ -4417,10 +4417,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>38</v>
@@ -4449,10 +4449,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>38</v>
@@ -4510,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>38</v>
@@ -4540,7 +4540,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>38</v>
@@ -4575,10 +4575,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="77" t="s">
         <v>38</v>
@@ -4607,10 +4607,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H14" s="77" t="s">
         <v>38</v>
@@ -4639,10 +4639,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H15" s="77" t="s">
         <v>38</v>
@@ -4671,10 +4671,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H16" s="77" t="s">
         <v>38</v>
@@ -4700,7 +4700,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4732,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -4799,10 +4799,10 @@
         <v>38</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" s="77" t="s">
         <v>38</v>
@@ -4831,10 +4831,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>38</v>
@@ -4860,7 +4860,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>38</v>
@@ -4892,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>38</v>
@@ -4956,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>38</v>
@@ -5004,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5223,7 +5223,9 @@
       <c r="D8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="59" t="s">
+        <v>325</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="G8" s="49"/>
       <c r="H8" s="38" t="s">
@@ -5250,7 +5252,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
@@ -5278,7 +5280,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -5305,7 +5307,9 @@
       <c r="D11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="F11" s="48"/>
       <c r="G11" s="43"/>
       <c r="H11" s="38" t="s">
@@ -5332,7 +5336,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>38</v>
@@ -5364,7 +5368,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>38</v>
@@ -5396,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>38</v>
@@ -5428,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>38</v>
@@ -5460,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>38</v>
@@ -5492,7 +5496,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -5524,7 +5528,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -5556,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>38</v>
@@ -5588,7 +5592,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>38</v>
@@ -5623,10 +5627,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>38</v>
@@ -5655,10 +5659,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>38</v>
@@ -5684,13 +5688,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>38</v>
@@ -5716,13 +5720,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>314</v>
-      </c>
       <c r="G24" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5751,10 +5755,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5783,10 +5787,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>38</v>
@@ -5815,10 +5819,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>38</v>
@@ -5847,10 +5851,10 @@
         <v>38</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>38</v>
@@ -5879,10 +5883,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>38</v>
@@ -5908,7 +5912,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>38</v>
@@ -5940,7 +5944,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>38</v>
@@ -5972,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>38</v>
@@ -6036,7 +6040,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>38</v>
@@ -6096,7 +6100,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>38</v>
@@ -6128,7 +6132,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>38</v>
@@ -6158,7 +6162,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>38</v>
@@ -6190,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>38</v>
@@ -6222,7 +6226,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>38</v>
@@ -6260,7 +6264,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>38</v>
@@ -6292,7 +6296,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>38</v>
@@ -6328,7 +6332,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>38</v>
@@ -6366,7 +6370,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>38</v>
@@ -6400,7 +6404,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>38</v>

--- a/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F88D0-B6F6-472C-9CBA-A4660CBEDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF33C2-C07E-4466-8450-48A3FC170E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>ExemptOfVolumeFlowPriority</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategoryCV</t>
   </si>
   <si>
     <t>SDWISIdentifierCV</t>
@@ -1089,6 +1086,15 @@
   </si>
   <si>
     <t>CAwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>CAwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1842,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2130,6 +2136,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2502,10 +2511,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>267</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>268</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>21</v>
@@ -2516,32 +2525,32 @@
         <v>157</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2549,14 +2558,14 @@
         <v>158</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="94"/>
       <c r="B6" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="93"/>
     </row>
@@ -2589,37 +2598,37 @@
         <v>159</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="94"/>
       <c r="B14" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="94"/>
       <c r="B15" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
       <c r="B16" s="93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="94"/>
       <c r="B17" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="94"/>
       <c r="B18" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,10 +2653,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -2829,7 +2838,7 @@
         <v>136</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2846,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -2857,7 +2866,7 @@
         <v>106</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2874,7 +2883,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -2902,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -2913,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2930,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -2941,7 +2950,7 @@
         <v>156</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2958,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2984,7 +2993,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -2995,7 +3004,7 @@
         <v>140</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3012,7 +3021,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3023,7 +3032,7 @@
         <v>105</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3040,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3051,7 +3060,7 @@
         <v>107</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3177,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3183,7 +3192,7 @@
         <v>137</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3215,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3247,7 +3256,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3279,7 +3288,7 @@
         <v>108</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3311,7 +3320,7 @@
         <v>111</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3343,7 +3352,7 @@
         <v>112</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3375,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3407,7 +3416,7 @@
         <v>110</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,7 +3448,7 @@
         <v>141</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3471,7 +3480,7 @@
         <v>113</v>
       </c>
       <c r="J13" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3600,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -3602,7 +3611,7 @@
         <v>123</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3619,7 +3628,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3630,7 +3639,7 @@
         <v>127</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3647,7 +3656,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3658,7 +3667,7 @@
         <v>126</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3675,7 +3684,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3686,7 +3695,7 @@
         <v>124</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3703,7 +3712,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3714,7 +3723,7 @@
         <v>144</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3731,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3742,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3759,7 +3768,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3770,7 +3779,7 @@
         <v>145</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3787,7 +3796,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3798,7 +3807,7 @@
         <v>124</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3815,7 +3824,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3826,7 +3835,7 @@
         <v>128</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3971,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
@@ -3980,7 +3989,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3997,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>38</v>
@@ -4010,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4027,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>38</v>
@@ -4040,7 +4049,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4070,7 +4079,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4090,17 +4099,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
         <v>154</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4117,7 +4126,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
@@ -4130,7 +4139,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4160,7 +4169,7 @@
         <v>106</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4286,7 +4295,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -4301,12 +4310,12 @@
         <v>116</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>67</v>
@@ -4318,7 +4327,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>38</v>
@@ -4333,7 +4342,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4350,7 +4359,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>38</v>
@@ -4365,7 +4374,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4382,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>38</v>
@@ -4394,10 +4403,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4417,10 +4426,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>38</v>
@@ -4429,7 +4438,7 @@
         <v>121</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4449,10 +4458,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>38</v>
@@ -4461,7 +4470,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4493,7 +4502,7 @@
         <v>122</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4510,7 +4519,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>38</v>
@@ -4523,7 +4532,7 @@
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4540,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>38</v>
@@ -4555,7 +4564,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4575,10 +4584,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H13" s="77" t="s">
         <v>38</v>
@@ -4587,7 +4596,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4607,10 +4616,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" s="77" t="s">
         <v>38</v>
@@ -4619,7 +4628,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4639,10 +4648,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H15" s="77" t="s">
         <v>38</v>
@@ -4651,7 +4660,7 @@
         <v>119</v>
       </c>
       <c r="J15" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4671,10 +4680,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H16" s="77" t="s">
         <v>38</v>
@@ -4683,7 +4692,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4700,7 +4709,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4715,7 +4724,7 @@
         <v>38</v>
       </c>
       <c r="J17" s="89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4732,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -4747,7 +4756,7 @@
         <v>38</v>
       </c>
       <c r="J18" s="89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4779,7 +4788,7 @@
         <v>161</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4799,10 +4808,10 @@
         <v>38</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H20" s="77" t="s">
         <v>38</v>
@@ -4811,7 +4820,7 @@
         <v>117</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4831,10 +4840,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>38</v>
@@ -4843,7 +4852,7 @@
         <v>3703994</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4860,7 +4869,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>38</v>
@@ -4875,7 +4884,7 @@
         <v>120</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4892,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>38</v>
@@ -4907,7 +4916,7 @@
         <v>118</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
@@ -4924,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>38</v>
@@ -4939,7 +4948,7 @@
         <v>138</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4956,7 +4965,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>38</v>
@@ -4971,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="J25" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -5002,10 +5011,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5085,7 +5094,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -5207,15 +5216,15 @@
         <v>63</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C8" s="54" t="s">
         <v>38</v>
@@ -5223,52 +5232,46 @@
       <c r="D8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>325</v>
+      <c r="E8" s="100" t="s">
+        <v>328</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>67</v>
@@ -5279,8 +5282,8 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>319</v>
+      <c r="E10" s="99" t="s">
+        <v>326</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -5291,104 +5294,100 @@
         <v>38</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="C12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="65">
+      <c r="E13" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="65">
         <v>5363</v>
       </c>
-      <c r="J12" s="89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="J13" s="89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="75" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
-        <v>93</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>68</v>
@@ -5400,7 +5399,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>38</v>
@@ -5415,24 +5414,24 @@
         <v>130</v>
       </c>
       <c r="J14" s="89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>20</v>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>38</v>
@@ -5443,28 +5442,28 @@
       <c r="H15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="65" t="s">
-        <v>147</v>
+      <c r="I15" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="J15" s="89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>38</v>
+      <c r="D16" s="56" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>38</v>
@@ -5475,19 +5474,19 @@
       <c r="H16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>135</v>
+      <c r="I16" s="65" t="s">
+        <v>147</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>18</v>
@@ -5496,7 +5495,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -5508,18 +5507,18 @@
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J17" s="89" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>18</v>
@@ -5528,7 +5527,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -5539,28 +5538,28 @@
       <c r="H18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="67" t="s">
-        <v>38</v>
+      <c r="I18" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="J18" s="89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>38</v>
@@ -5571,28 +5570,28 @@
       <c r="H19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="18">
-        <v>5200</v>
+      <c r="I19" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>38</v>
@@ -5604,178 +5603,178 @@
         <v>38</v>
       </c>
       <c r="I20" s="18">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>133</v>
+      <c r="I21" s="18">
+        <v>1</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="J23" s="89" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E25" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="G25" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="89" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="J25" s="89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="68">
-        <v>44196</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="75" t="s">
-        <v>103</v>
-      </c>
       <c r="B26" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>18</v>
@@ -5787,7 +5786,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>315</v>
@@ -5796,155 +5795,155 @@
         <v>38</v>
       </c>
       <c r="I26" s="68">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J26" s="89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>130</v>
+      <c r="I27" s="68">
+        <v>43831</v>
       </c>
       <c r="J27" s="89" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="75" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G28" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="18">
+      <c r="G29" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="18">
         <v>0</v>
       </c>
-      <c r="J28" s="89" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="J29" s="89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="87" t="s">
         <v>146</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
-        <v>101</v>
       </c>
       <c r="B30" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>18</v>
+      <c r="C30" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>283</v>
+      <c r="E30" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>130</v>
+      <c r="I30" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J30" s="89" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>38</v>
@@ -5959,12 +5958,12 @@
         <v>130</v>
       </c>
       <c r="J31" s="89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="53" t="s">
         <v>15</v>
@@ -5976,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>38</v>
@@ -5991,24 +5990,24 @@
         <v>130</v>
       </c>
       <c r="J32" s="89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="63">
-        <v>44398</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>38</v>
@@ -6019,28 +6018,28 @@
       <c r="H33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="69">
-        <v>43874</v>
+      <c r="I33" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="J33" s="89" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>283</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="63">
+        <v>44398</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>38</v>
@@ -6051,19 +6050,19 @@
       <c r="H34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="70">
-        <v>33187</v>
+      <c r="I34" s="69">
+        <v>43874</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="C35" s="54" t="s">
         <v>18</v>
@@ -6071,8 +6070,8 @@
       <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="24">
-        <v>0</v>
+      <c r="E35" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>38</v>
@@ -6080,27 +6079,31 @@
       <c r="G35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="70"/>
+      <c r="H35" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="70">
+        <v>33187</v>
+      </c>
       <c r="J35" s="89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>283</v>
+      <c r="E36" s="24">
+        <v>0</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>38</v>
@@ -6108,19 +6111,15 @@
       <c r="G36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>38</v>
-      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="89" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="53" t="s">
         <v>69</v>
@@ -6132,7 +6131,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>38</v>
@@ -6140,29 +6139,31 @@
       <c r="G37" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I37" s="67" t="s">
         <v>38</v>
       </c>
       <c r="J37" s="89" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>38</v>
@@ -6170,31 +6171,29 @@
       <c r="G38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>130</v>
+      <c r="H38" s="37"/>
+      <c r="I38" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J38" s="89" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>38</v>
@@ -6205,16 +6204,16 @@
       <c r="H39" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="67" t="s">
-        <v>38</v>
+      <c r="I39" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="J39" s="89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
-        <v>174</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="B40" s="53" t="s">
         <v>34</v>
@@ -6222,11 +6221,11 @@
       <c r="C40" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>20</v>
+      <c r="D40" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>38</v>
@@ -6238,33 +6237,27 @@
         <v>38</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="J40" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="75" t="s">
-        <v>89</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>38</v>
+      <c r="D41" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>38</v>
@@ -6276,89 +6269,89 @@
         <v>38</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="18" t="s">
+      <c r="E43" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J42" s="89"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-    </row>
-    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="J43" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J43" s="89"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+    </row>
+    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="75" t="s">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="B44" s="53" t="s">
         <v>15</v>
@@ -6370,7 +6363,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>38</v>
@@ -6378,54 +6371,87 @@
       <c r="G44" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="65"/>
+      <c r="H44" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>129</v>
+      </c>
       <c r="J44" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
+        <v>210</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="77"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B46" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="D46" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J45" s="89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
+      <c r="J46" s="89" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="52"/>
@@ -6442,12 +6468,17 @@
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="74"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="74"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:P11">
-    <sortCondition ref="A8:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P12">
+    <sortCondition ref="A9:A12"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/California/WaterAllocation/CA_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF33C2-C07E-4466-8450-48A3FC170E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4FAD9-8519-49D0-AF0F-5BDFAF04174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="329">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>MethodName</t>
-  </si>
-  <si>
-    <t>MethodDescription</t>
   </si>
   <si>
     <t>MethodNEMILink</t>
@@ -1067,18 +1064,6 @@
     <t>Surface water or subsurface water</t>
   </si>
   <si>
-    <t>Water Rights.</t>
-  </si>
-  <si>
-    <t>California Water Rights</t>
-  </si>
-  <si>
-    <t>https://www.waterboards.ca.gov/waterrights/water_issues/programs/ewrims/</t>
-  </si>
-  <si>
-    <t>Adjudicated</t>
-  </si>
-  <si>
     <t>CAwr_M1</t>
   </si>
   <si>
@@ -1095,6 +1080,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>A Water Right is a property right that is either conditional or absolute and conveys the right to use a particular amount of water, with a specified priority date as confirmed by the water court. The Net Amounts List contains the current status of a water right based on all of its court decreed actions.</t>
+  </si>
+  <si>
+    <t>California Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://www.waterboards.ca.gov/waterrights/board_info/faqs.html#toc178761079</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1839,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1898,19 +1895,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2012,12 +2003,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2060,7 +2045,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2074,9 +2059,6 @@
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,21 +2067,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2112,22 +2082,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2136,9 +2100,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2504,214 +2465,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="72" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="68" customWidth="1"/>
     <col min="2" max="2" width="55.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="C1" s="82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="C5" s="84"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="84"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="70"/>
+      <c r="B7" s="84"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="70"/>
+      <c r="B8" s="84"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" s="84"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="70"/>
+      <c r="B10" s="84"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="70"/>
+      <c r="B11" s="84"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="84"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="93"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
-      <c r="B6" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="93"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="93"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="93"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="93"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="93"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="93"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="93"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>292</v>
+      <c r="B13" s="84" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="93" t="s">
-        <v>291</v>
+      <c r="A14" s="70"/>
+      <c r="B14" s="84" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="93" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="84" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="70"/>
+      <c r="B17" s="84" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="93" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="93" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
-      <c r="B18" s="93" t="s">
-        <v>301</v>
+      <c r="A18" s="70"/>
+      <c r="B18" s="84" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="84"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="84"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="84"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="84"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="84"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="93" t="s">
-        <v>299</v>
+      <c r="A24" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="84"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="84"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="93"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="84"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="84"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="84"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="84"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="84"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="84"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="84"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
+      <c r="A34" s="70"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
+      <c r="A35" s="70"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
+      <c r="A36" s="70"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
+      <c r="A37" s="70"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
+      <c r="A38" s="70"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
+      <c r="A39" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2723,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,22 +2721,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -2786,197 +2747,197 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>152</v>
+      <c r="J3" s="80" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>178</v>
+        <v>135</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>318</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="89" t="s">
-        <v>211</v>
+        <v>105</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="71">
+        <v>37</v>
+      </c>
+      <c r="I6" s="67">
         <v>0.5</v>
       </c>
-      <c r="J6" s="89" t="s">
-        <v>153</v>
+      <c r="J6" s="80" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="108" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="89" t="s">
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="80" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="89" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2984,83 +2945,83 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>326</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>215</v>
+        <v>139</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>216</v>
+        <v>104</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>217</v>
+        <v>106</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3029,7 @@
     <sortCondition ref="A18:A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{D2C9F75A-0CDC-4991-A97D-DE64B2EA609B}"/>
+    <hyperlink ref="E11" r:id="rId1" location="toc178761079" xr:uid="{D2C9F75A-0CDC-4991-A97D-DE64B2EA609B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3116,22 +3077,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -3139,348 +3100,348 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>152</v>
+      <c r="J3" s="80" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>176</v>
+        <v>136</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
+      <c r="F5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="89" t="s">
-        <v>218</v>
+      <c r="J5" s="80" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>219</v>
+        <v>108</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>220</v>
+        <v>107</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>221</v>
+        <v>110</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>222</v>
+        <v>111</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="17">
         <v>11</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>38</v>
+      <c r="F10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="89" t="s">
-        <v>223</v>
+      <c r="J10" s="80" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>38</v>
+        <v>109</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>224</v>
+        <v>109</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>38</v>
+        <v>140</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>225</v>
+        <v>140</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>38</v>
+        <v>140</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>226</v>
+        <v>112</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3533,22 +3494,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -3556,286 +3517,286 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>152</v>
+      <c r="J3" s="80" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>175</v>
+        <v>122</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="89" t="s">
-        <v>227</v>
+        <v>126</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>228</v>
+        <v>125</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>229</v>
+        <v>123</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>230</v>
+        <v>143</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>276</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>231</v>
+        <v>124</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>277</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>232</v>
+        <v>144</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>233</v>
+        <v>123</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>234</v>
+        <v>127</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3915,22 +3876,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -3938,238 +3899,238 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>152</v>
+      <c r="J3" s="80" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>235</v>
+        <v>113</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="89" t="s">
-        <v>236</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>237</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>238</v>
+        <v>114</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>298</v>
-      </c>
-      <c r="H8" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>239</v>
+        <v>153</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="89" t="s">
-        <v>240</v>
+      <c r="J9" s="80" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>241</v>
+        <v>105</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4230,22 +4191,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -4253,748 +4214,747 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>151</v>
+      <c r="J3" s="80" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="80" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>235</v>
+    <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>244</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>245</v>
+        <v>120</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>246</v>
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="24">
+        <v>19</v>
+      </c>
+      <c r="E10" s="22">
         <v>4326</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>38</v>
+      <c r="F10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>247</v>
+        <v>121</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="89" t="s">
-        <v>236</v>
+      <c r="J11" s="80" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>237</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>248</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>249</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="80" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>250</v>
+        <v>118</v>
+      </c>
+      <c r="J15" s="80" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="I16" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="80" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+    <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="89" t="s">
+      <c r="B18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+    <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="61">
+        <v>3703994</v>
+      </c>
+      <c r="J21" s="80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="B24" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="65">
-        <v>3703994</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" s="89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" s="89" t="s">
+      <c r="B25" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="80" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,7 +4973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5050,1229 +5010,1229 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="61">
+        <v>50004</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="61">
+        <v>43</v>
+      </c>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="61">
+        <v>1</v>
+      </c>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="61">
+        <v>39035</v>
+      </c>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="B7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="61">
+        <v>63</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="65">
-        <v>50004</v>
-      </c>
-      <c r="J3" s="89" t="s">
+      <c r="C8" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="80" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="65">
-        <v>43</v>
-      </c>
-      <c r="J4" s="89"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="65">
-        <v>1</v>
-      </c>
-      <c r="J5" s="89"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="65">
-        <v>39035</v>
-      </c>
-      <c r="J6" s="89"/>
-    </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="65">
-        <v>63</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="89"/>
-    </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>242</v>
+        <v>317</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C13" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="61">
+        <v>5363</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="C14" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="65">
-        <v>5363</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>18</v>
+      <c r="B20" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="18">
         <v>5200</v>
       </c>
-      <c r="J20" s="89" t="s">
-        <v>184</v>
+      <c r="J20" s="80" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>18</v>
+      <c r="A21" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="89" t="s">
+      <c r="J21" s="80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="80" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+    <row r="23" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="64">
+        <v>44196</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="64">
+        <v>43831</v>
+      </c>
+      <c r="J27" s="80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="B28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="H22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="89" t="s">
+      <c r="H28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="53" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="68">
-        <v>44196</v>
-      </c>
-      <c r="J26" s="89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="68">
-        <v>43831</v>
-      </c>
-      <c r="J27" s="89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>18</v>
+      <c r="C29" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>38</v>
+      <c r="G29" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I29" s="18">
         <v>0</v>
       </c>
-      <c r="J29" s="89" t="s">
+      <c r="J29" s="80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="80" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="89" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="89" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="59">
+        <v>44398</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="65">
+        <v>43874</v>
+      </c>
+      <c r="J34" s="80" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="66">
+        <v>33187</v>
+      </c>
+      <c r="J35" s="80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" s="89" t="s">
+      <c r="B39" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="80" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="89" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41" s="80" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="63">
-        <v>44398</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="69">
-        <v>43874</v>
-      </c>
-      <c r="J34" s="89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="70">
-        <v>33187</v>
-      </c>
-      <c r="J35" s="89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="24">
-        <v>0</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="89" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" s="89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="J41" s="89" t="s">
-        <v>203</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -6282,103 +6242,103 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>18</v>
+      <c r="A42" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="89" t="s">
-        <v>204</v>
+        <v>37</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>18</v>
+      <c r="A43" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J43" s="89"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-    </row>
-    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="89" t="s">
-        <v>210</v>
+      <c r="J43" s="80"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+    </row>
+    <row r="44" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>209</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6388,93 +6348,93 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="77"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="89" t="s">
+      <c r="A45" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="73"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" s="89" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="74"/>
+      <c r="A87" s="70"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P12">
@@ -6497,32 +6457,32 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
